--- a/grading/codes/grades.xlsx
+++ b/grading/codes/grades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,6 @@
           <t>Grade</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Grades</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -462,8 +457,7 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -476,8 +470,7 @@
       <c r="B3" t="n">
         <v>62.5</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -490,8 +483,7 @@
       <c r="B4" t="n">
         <v>45</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -504,8 +496,7 @@
       <c r="B5" t="n">
         <v>67</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -518,8 +509,7 @@
       <c r="B6" t="n">
         <v>85</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -532,8 +522,7 @@
       <c r="B7" t="n">
         <v>75</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -546,8 +535,7 @@
       <c r="B8" t="n">
         <v>55.1</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -560,8 +548,7 @@
       <c r="B9" t="n">
         <v>48</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -574,8 +561,7 @@
       <c r="B10" t="n">
         <v>56.5</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -588,8 +574,7 @@
       <c r="B11" t="n">
         <v>79.5</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -602,8 +587,7 @@
       <c r="B12" t="n">
         <v>50</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -616,8 +600,7 @@
       <c r="B13" t="n">
         <v>76</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -630,8 +613,7 @@
       <c r="B14" t="n">
         <v>71.5</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -644,8 +626,7 @@
       <c r="B15" t="n">
         <v>70</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -658,8 +639,7 @@
       <c r="B16" t="n">
         <v>55</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -672,8 +652,7 @@
       <c r="B17" t="n">
         <v>75.5</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -686,8 +665,7 @@
       <c r="B18" t="n">
         <v>58</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -700,8 +678,7 @@
       <c r="B19" t="n">
         <v>57</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -714,8 +691,7 @@
       <c r="B20" t="n">
         <v>69.3</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -728,8 +704,7 @@
       <c r="B21" t="n">
         <v>77</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -742,8 +717,7 @@
       <c r="B22" t="n">
         <v>21.4</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -756,8 +730,7 @@
       <c r="B23" t="n">
         <v>71.5</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -770,8 +743,7 @@
       <c r="B24" t="n">
         <v>59.5</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -784,8 +756,7 @@
       <c r="B25" t="n">
         <v>76.5</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -798,8 +769,7 @@
       <c r="B26" t="n">
         <v>74.5</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -812,8 +782,7 @@
       <c r="B27" t="n">
         <v>43</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -826,8 +795,7 @@
       <c r="B28" t="n">
         <v>55</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -840,8 +808,7 @@
       <c r="B29" t="n">
         <v>72</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -854,8 +821,7 @@
       <c r="B30" t="n">
         <v>60</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -868,8 +834,7 @@
       <c r="B31" t="n">
         <v>64</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -882,8 +847,7 @@
       <c r="B32" t="n">
         <v>43</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -896,8 +860,7 @@
       <c r="B33" t="n">
         <v>0</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -910,8 +873,7 @@
       <c r="B34" t="n">
         <v>47</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -924,8 +886,7 @@
       <c r="B35" t="n">
         <v>50.8</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -938,8 +899,7 @@
       <c r="B36" t="n">
         <v>30.5</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -952,8 +912,7 @@
       <c r="B37" t="n">
         <v>31</v>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -966,8 +925,7 @@
       <c r="B38" t="n">
         <v>40.6</v>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -980,8 +938,7 @@
       <c r="B39" t="n">
         <v>30.8</v>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -994,8 +951,7 @@
       <c r="B40" t="n">
         <v>30</v>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1008,8 +964,7 @@
       <c r="B41" t="n">
         <v>29</v>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1022,8 +977,7 @@
       <c r="B42" t="n">
         <v>39.5</v>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1036,8 +990,7 @@
       <c r="B43" t="n">
         <v>19</v>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1050,8 +1003,7 @@
       <c r="B44" t="n">
         <v>23.6</v>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1064,8 +1016,7 @@
       <c r="B45" t="n">
         <v>46</v>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1078,8 +1029,7 @@
       <c r="B46" t="n">
         <v>31.5</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1092,8 +1042,7 @@
       <c r="B47" t="n">
         <v>47</v>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1106,8 +1055,7 @@
       <c r="B48" t="n">
         <v>41.5</v>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1120,8 +1068,7 @@
       <c r="B49" t="n">
         <v>63.5</v>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1134,8 +1081,7 @@
       <c r="B50" t="n">
         <v>87.5</v>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1148,8 +1094,7 @@
       <c r="B51" t="n">
         <v>1</v>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1162,8 +1107,7 @@
       <c r="B52" t="n">
         <v>0</v>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1176,8 +1120,7 @@
       <c r="B53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1190,8 +1133,7 @@
       <c r="B54" t="n">
         <v>28</v>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1204,8 +1146,7 @@
       <c r="B55" t="n">
         <v>37.9</v>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1218,8 +1159,7 @@
       <c r="B56" t="n">
         <v>49.5</v>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1232,8 +1172,7 @@
       <c r="B57" t="n">
         <v>63.4</v>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1246,8 +1185,7 @@
       <c r="B58" t="n">
         <v>43</v>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1260,8 +1198,7 @@
       <c r="B59" t="n">
         <v>56</v>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1274,8 +1211,7 @@
       <c r="B60" t="n">
         <v>1</v>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1288,8 +1224,7 @@
       <c r="B61" t="n">
         <v>54</v>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1302,8 +1237,7 @@
       <c r="B62" t="n">
         <v>44</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1316,8 +1250,7 @@
       <c r="B63" t="n">
         <v>34.5</v>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1330,8 +1263,7 @@
       <c r="B64" t="n">
         <v>23.2</v>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1344,8 +1276,7 @@
       <c r="B65" t="n">
         <v>5.8</v>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1358,8 +1289,7 @@
       <c r="B66" t="n">
         <v>48</v>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1372,8 +1302,7 @@
       <c r="B67" t="n">
         <v>16</v>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1386,8 +1315,7 @@
       <c r="B68" t="n">
         <v>33</v>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1400,8 +1328,7 @@
       <c r="B69" t="n">
         <v>72.2</v>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -1414,8 +1341,7 @@
       <c r="B70" t="n">
         <v>40.5</v>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1428,8 +1354,7 @@
       <c r="B71" t="n">
         <v>45.8</v>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1442,8 +1367,7 @@
       <c r="B72" t="n">
         <v>48.1</v>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1456,8 +1380,7 @@
       <c r="B73" t="n">
         <v>18.1</v>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1470,8 +1393,7 @@
       <c r="B74" t="n">
         <v>47.8</v>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1484,8 +1406,7 @@
       <c r="B75" t="n">
         <v>47</v>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1498,8 +1419,7 @@
       <c r="B76" t="n">
         <v>16.5</v>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1512,8 +1432,7 @@
       <c r="B77" t="n">
         <v>42</v>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1526,8 +1445,7 @@
       <c r="B78" t="n">
         <v>37.1</v>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1540,8 +1458,7 @@
       <c r="B79" t="n">
         <v>53.3</v>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1554,8 +1471,7 @@
       <c r="B80" t="n">
         <v>55</v>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1568,8 +1484,7 @@
       <c r="B81" t="n">
         <v>37</v>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1582,8 +1497,7 @@
       <c r="B82" t="n">
         <v>0</v>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1596,8 +1510,7 @@
       <c r="B83" t="n">
         <v>27</v>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1610,8 +1523,7 @@
       <c r="B84" t="n">
         <v>3</v>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1624,8 +1536,7 @@
       <c r="B85" t="n">
         <v>4</v>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1638,8 +1549,7 @@
       <c r="B86" t="n">
         <v>28.5</v>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1652,8 +1562,7 @@
       <c r="B87" t="n">
         <v>18</v>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1666,8 +1575,7 @@
       <c r="B88" t="n">
         <v>62.5</v>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1680,8 +1588,7 @@
       <c r="B89" t="n">
         <v>31</v>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1694,8 +1601,7 @@
       <c r="B90" t="n">
         <v>11</v>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1708,8 +1614,7 @@
       <c r="B91" t="n">
         <v>56.3</v>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1722,8 +1627,7 @@
       <c r="B92" t="n">
         <v>62.5</v>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1736,8 +1640,7 @@
       <c r="B93" t="n">
         <v>58.5</v>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1750,8 +1653,7 @@
       <c r="B94" t="n">
         <v>46.8</v>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1764,8 +1666,7 @@
       <c r="B95" t="n">
         <v>55</v>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1778,8 +1679,7 @@
       <c r="B96" t="n">
         <v>25</v>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1792,8 +1692,7 @@
       <c r="B97" t="n">
         <v>53</v>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1806,8 +1705,7 @@
       <c r="B98" t="n">
         <v>21.4</v>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>D</t>
         </is>
@@ -1820,8 +1718,7 @@
       <c r="B99" t="n">
         <v>49.5</v>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1834,8 +1731,7 @@
       <c r="B100" t="n">
         <v>57.3</v>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1848,8 +1744,7 @@
       <c r="B101" t="n">
         <v>51</v>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1862,8 +1757,7 @@
       <c r="B102" t="n">
         <v>54.5</v>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1876,8 +1770,7 @@
       <c r="B103" t="n">
         <v>48.5</v>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1890,8 +1783,7 @@
       <c r="B104" t="n">
         <v>70.5</v>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>A-</t>
         </is>
@@ -1904,8 +1796,7 @@
       <c r="B105" t="n">
         <v>60.5</v>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -1918,8 +1809,7 @@
       <c r="B106" t="n">
         <v>44.1</v>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1932,8 +1822,7 @@
       <c r="B107" t="n">
         <v>48.5</v>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -1946,8 +1835,7 @@
       <c r="B108" t="n">
         <v>24.5</v>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -1960,8 +1848,7 @@
       <c r="B109" t="n">
         <v>5</v>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1974,8 +1861,7 @@
       <c r="B110" t="n">
         <v>37.5</v>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -1988,8 +1874,7 @@
       <c r="B111" t="n">
         <v>49.1</v>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -2002,8 +1887,7 @@
       <c r="B112" t="n">
         <v>51.6</v>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>B-</t>
         </is>
@@ -2016,8 +1900,7 @@
       <c r="B113" t="n">
         <v>32.3</v>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -2030,8 +1913,7 @@
       <c r="B114" t="n">
         <v>32.3</v>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>C-</t>
         </is>
@@ -2044,8 +1926,7 @@
       <c r="B115" t="n">
         <v>19</v>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>D</t>
         </is>
